--- a/Punkte.xlsx
+++ b/Punkte.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="22116" windowHeight="10080"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22110" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -177,8 +182,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1008,14 @@
       <color rgb="FFFF9F9F"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1017,7 +1030,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>780010</xdr:colOff>
+      <xdr:colOff>760960</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>139703</xdr:rowOff>
     </xdr:to>
@@ -1057,7 +1070,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>776436</xdr:colOff>
+      <xdr:colOff>757386</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>129764</xdr:rowOff>
     </xdr:to>
@@ -1097,7 +1110,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>776437</xdr:colOff>
+      <xdr:colOff>757387</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>129764</xdr:rowOff>
     </xdr:to>
@@ -1137,7 +1150,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>767894</xdr:colOff>
+      <xdr:colOff>758369</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>143016</xdr:rowOff>
     </xdr:to>
@@ -1172,9 +1185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1212,9 +1225,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1246,9 +1259,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1280,9 +1294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1455,22 +1470,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="28" width="4.77734375" customWidth="1"/>
-    <col min="29" max="29" width="16.44140625" customWidth="1"/>
-    <col min="30" max="32" width="7.77734375" customWidth="1"/>
+    <col min="5" max="28" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="16.42578125" customWidth="1"/>
+    <col min="30" max="32" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:32" ht="15" thickBot="1"/>
-    <row r="5" spans="2:32" ht="15" thickBot="1">
+    <row r="4" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="54" t="s">
         <v>19</v>
       </c>
@@ -1510,7 +1525,7 @@
       <c r="AE5" s="55"/>
       <c r="AF5" s="56"/>
     </row>
-    <row r="6" spans="2:32" ht="15" thickBot="1">
+    <row r="6" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1584,7 @@
       <c r="AE6" s="61"/>
       <c r="AF6" s="62"/>
     </row>
-    <row r="7" spans="2:32">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1584,13 +1599,13 @@
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="24"/>
       <c r="J7" s="48">
         <f>ROUND((SUM(E7:F7)/COUNT(E7:F7)+SUM(G7:I7)/COUNT(G7:I7))/2,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K7" s="14">
         <v>0</v>
@@ -1633,13 +1648,13 @@
       </c>
       <c r="AC7" s="32">
         <f>2*(J7+P7+V7+AB7)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD7" s="36"/>
       <c r="AE7" s="37"/>
       <c r="AF7" s="38"/>
     </row>
-    <row r="8" spans="2:32">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1654,15 +1669,15 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="49">
         <f t="shared" ref="J8:J18" si="0">ROUND((SUM(E8:F8)/COUNT(E8:F8)+SUM(G8:I8)/COUNT(G8:I8))/2,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K8" s="23">
         <v>0</v>
@@ -1705,13 +1720,13 @@
       </c>
       <c r="AC8" s="33">
         <f>2*(J8+P8+V8+AB8)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD8" s="39"/>
       <c r="AE8" s="40"/>
       <c r="AF8" s="41"/>
     </row>
-    <row r="9" spans="2:32">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1781,7 +1796,7 @@
       <c r="AE9" s="40"/>
       <c r="AF9" s="41"/>
     </row>
-    <row r="10" spans="2:32">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1796,13 +1811,13 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
       <c r="J10" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K10" s="23">
         <v>0</v>
@@ -1845,13 +1860,13 @@
       </c>
       <c r="AC10" s="12">
         <f>SUM(J10,P10,V10,AB10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD10" s="39"/>
       <c r="AE10" s="40"/>
       <c r="AF10" s="41"/>
     </row>
-    <row r="11" spans="2:32">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1866,13 +1881,13 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
       <c r="J11" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K11" s="23">
         <v>0</v>
@@ -1915,13 +1930,13 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" ref="AC11:AC17" si="4">J11+P11+V11+AB11</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD11" s="39"/>
       <c r="AE11" s="40"/>
       <c r="AF11" s="41"/>
     </row>
-    <row r="12" spans="2:32">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -1991,7 +2006,7 @@
       <c r="AE12" s="40"/>
       <c r="AF12" s="41"/>
     </row>
-    <row r="13" spans="2:32">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2067,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:32">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2146,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:32">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2161,13 +2176,13 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="6"/>
       <c r="J15" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K15" s="23">
         <v>0</v>
@@ -2210,13 +2225,13 @@
       </c>
       <c r="AC15" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD15" s="39"/>
       <c r="AE15" s="40"/>
       <c r="AF15" s="41"/>
     </row>
-    <row r="16" spans="2:32">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2295,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
@@ -2310,13 +2325,13 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
       <c r="J17" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K17" s="23">
         <v>0</v>
@@ -2359,13 +2374,13 @@
       </c>
       <c r="AC17" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD17" s="39"/>
       <c r="AE17" s="40"/>
       <c r="AF17" s="41"/>
     </row>
-    <row r="18" spans="2:36" ht="15" thickBot="1">
+    <row r="18" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
@@ -2380,13 +2395,13 @@
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="8"/>
       <c r="J18" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K18" s="28">
         <v>0</v>
@@ -2429,7 +2444,7 @@
       </c>
       <c r="AC18" s="13">
         <f>SUM(LARGE((J18,P18,V18,AB18),{1;2}))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD18" s="42"/>
       <c r="AE18" s="43">
@@ -2441,8 +2456,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:36" ht="15" thickBot="1"/>
-    <row r="20" spans="2:36" ht="15" thickBot="1">
+    <row r="19" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Y20" s="54" t="s">
         <v>28</v>
       </c>
@@ -2451,10 +2466,10 @@
       <c r="AB20" s="55"/>
       <c r="AC20" s="3">
         <f>ROUND(SUM(AC7:AC18,LARGE((AE13,AF13,AF14,AE14,AD14,AD16,AE16,AF16,AF18,AE18),{1;2}))/48*40,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:36" ht="15" thickBot="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Y21" s="54" t="s">
         <v>34</v>
       </c>
@@ -2465,7 +2480,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="2:36" ht="15" thickBot="1">
+    <row r="22" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Y22" s="63" t="s">
         <v>35</v>
       </c>
@@ -2474,7 +2489,7 @@
       <c r="AB22" s="65"/>
       <c r="AC22" s="29">
         <f>AC20/AC21</f>
-        <v>0</v>
+        <v>9.6666666666666665E-2</v>
       </c>
       <c r="AE22" s="59"/>
       <c r="AF22" s="59"/>
@@ -2483,7 +2498,7 @@
       <c r="AI22" s="59"/>
       <c r="AJ22" s="59"/>
     </row>
-    <row r="23" spans="2:36" ht="15" thickBot="1">
+    <row r="23" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="70" t="s">
         <v>30</v>
       </c>
@@ -2500,12 +2515,12 @@
       <c r="L23" s="56"/>
       <c r="M23" s="55">
         <f>AC20+D30</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N23" s="55"/>
       <c r="O23" s="56"/>
     </row>
-    <row r="24" spans="2:36" ht="15" thickBot="1">
+    <row r="24" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="68" t="s">
         <v>2</v>
       </c>
@@ -2537,7 +2552,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="25" spans="2:36" ht="15" thickBot="1">
+    <row r="25" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="68" t="s">
         <v>3</v>
       </c>
@@ -2546,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:36" ht="15" thickBot="1">
+    <row r="26" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="68" t="s">
         <v>4</v>
       </c>
@@ -2568,7 +2583,7 @@
       <c r="N26" s="55"/>
       <c r="O26" s="56"/>
     </row>
-    <row r="27" spans="2:36">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" s="68" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:36" ht="15" thickBot="1">
+    <row r="28" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="66" t="s">
         <v>12</v>
       </c>
@@ -2586,8 +2601,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:36" ht="15" thickBot="1"/>
-    <row r="30" spans="2:36" ht="15" thickBot="1">
+    <row r="29" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="57" t="s">
         <v>29</v>
       </c>
@@ -2597,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:36" ht="15" thickBot="1">
+    <row r="31" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="54" t="s">
         <v>34</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="2:36" ht="15" thickBot="1">
+    <row r="32" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="54" t="s">
         <v>35</v>
       </c>
@@ -2616,11 +2631,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="15" thickBot="1">
+    <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C40" s="75" t="s">
         <v>51</v>
       </c>
@@ -2655,7 +2670,7 @@
       <c r="N40" s="76"/>
       <c r="O40" s="79"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C41" s="77" t="s">
         <v>39</v>
       </c>
@@ -2687,41 +2702,41 @@
       <c r="N41" s="78"/>
       <c r="O41" s="80"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C42" s="77" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="78"/>
       <c r="E42" s="46">
-        <f>SMALL((J9:J18,P9:P18,V9:V18,AB9:AB18),1)</f>
+        <f>SMALL((J7:J18,P7:P18,V7:V18,AB7:AB18),1)</f>
         <v>0</v>
       </c>
       <c r="F42" s="46">
-        <f>SMALL((J9:J18,P9:P18,V9:V18,AB9:AB18),2)</f>
+        <f>SMALL((J7:J18,P7:P18,V7:V18,AB7:AB18),2)</f>
         <v>0</v>
       </c>
       <c r="G42" s="46">
-        <f>SMALL((J9:J18,P9:P18,V9:V18,AB9:AB18),3)</f>
+        <f>SMALL((J7:J18,P7:P18,V7:V18,AB7:AB18),3)</f>
         <v>0</v>
       </c>
       <c r="H42" s="46">
-        <f>SMALL((J9:J18,P9:P18,V9:V18,AB9:AB18),4)</f>
+        <f>SMALL((J7:J18,P7:P18,V7:V18,AB7:AB18),4)</f>
         <v>0</v>
       </c>
       <c r="I42" s="46">
-        <f>SMALL((J9:J18,P9:P18,V9:V18,AB9:AB18),5)</f>
+        <f>SMALL((J7:J18,P7:P18,V7:V18,AB7:AB18),5)</f>
         <v>0</v>
       </c>
       <c r="J42" s="46">
-        <f>SMALL((J9:J18,P9:P18,V9:V18,AB9:AB18),6)</f>
+        <f>SMALL((J7:J18,P7:P18,V7:V18,AB7:AB18),6)</f>
         <v>0</v>
       </c>
       <c r="K42" s="46">
-        <f>SMALL((J9:J18,P9:P18,V9:V18,AB9:AB18),7)</f>
+        <f>SMALL((J7:J18,P7:P18,V7:V18,AB7:AB18),7)</f>
         <v>0</v>
       </c>
       <c r="L42" s="46">
-        <f>SMALL((J9:J18,P9:P18,V9:V18,AB9:AB18),8)</f>
+        <f>SMALL((J7:J18,P7:P18,V7:V18,AB7:AB18),8)</f>
         <v>0</v>
       </c>
       <c r="M42" s="78">
@@ -2731,7 +2746,7 @@
       <c r="N42" s="78"/>
       <c r="O42" s="80"/>
     </row>
-    <row r="43" spans="2:15" ht="15" thickBot="1">
+    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="72" t="s">
         <v>50</v>
       </c>
@@ -2848,24 +2863,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
